--- a/excel/exp3_train_test.xlsx
+++ b/excel/exp3_train_test.xlsx
@@ -2,22 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Frequently Used\Fall 2015\CS760\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\public\food-image-classification\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="exp3_train_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,7 +582,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1249,7 +1246,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91F3-4424-9DC5-71EACBAB162A}"/>
             </c:ext>
@@ -1900,7 +1897,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91F3-4424-9DC5-71EACBAB162A}"/>
             </c:ext>
@@ -2551,7 +2548,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-91F3-4424-9DC5-71EACBAB162A}"/>
             </c:ext>
@@ -2565,11 +2562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="535264592"/>
-        <c:axId val="535263936"/>
+        <c:axId val="187000512"/>
+        <c:axId val="187001072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="535264592"/>
+        <c:axId val="187000512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2590,6 +2587,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2683,16 +2694,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535263936"/>
+        <c:crossAx val="187001072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="535263936"/>
+        <c:axId val="187001072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="17"/>
+          <c:max val="16"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2711,6 +2722,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2804,10 +2829,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535264592"/>
+        <c:crossAx val="187000512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3479,787 +3504,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="exp1_train_test"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="E1" t="str">
-            <v>Test error</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Training error</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Validation error</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2">
-            <v>1</v>
-          </cell>
-          <cell r="E2">
-            <v>15.624997019799999</v>
-          </cell>
-          <cell r="F2">
-            <v>13.845004141299999</v>
-          </cell>
-          <cell r="G2">
-            <v>16.1250010133</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>2</v>
-          </cell>
-          <cell r="E3">
-            <v>14.024998247600001</v>
-          </cell>
-          <cell r="F3">
-            <v>11.295000463699999</v>
-          </cell>
-          <cell r="G3">
-            <v>14.374999701999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>3</v>
-          </cell>
-          <cell r="E4">
-            <v>12.999999523200001</v>
-          </cell>
-          <cell r="F4">
-            <v>9.8899997770799999</v>
-          </cell>
-          <cell r="G4">
-            <v>13.625000417200001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>4</v>
-          </cell>
-          <cell r="E5">
-            <v>12.1500000358</v>
-          </cell>
-          <cell r="F5">
-            <v>8.8449977338300005</v>
-          </cell>
-          <cell r="G5">
-            <v>12.775000929800001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>5</v>
-          </cell>
-          <cell r="E6">
-            <v>11.450002342499999</v>
-          </cell>
-          <cell r="F6">
-            <v>8.0749988555899996</v>
-          </cell>
-          <cell r="G6">
-            <v>12.150000780799999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>6</v>
-          </cell>
-          <cell r="E7">
-            <v>10.724999755599999</v>
-          </cell>
-          <cell r="F7">
-            <v>7.3499977588699998</v>
-          </cell>
-          <cell r="G7">
-            <v>11.850000172900002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>7</v>
-          </cell>
-          <cell r="E8">
-            <v>10.049999505300001</v>
-          </cell>
-          <cell r="F8">
-            <v>6.5999992191799999</v>
-          </cell>
-          <cell r="G8">
-            <v>11.200000345699999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>8</v>
-          </cell>
-          <cell r="E9">
-            <v>8.9500010013600004</v>
-          </cell>
-          <cell r="F9">
-            <v>5.2400000393399999</v>
-          </cell>
-          <cell r="G9">
-            <v>10.0500002503</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>9</v>
-          </cell>
-          <cell r="E10">
-            <v>8.2000009715599997</v>
-          </cell>
-          <cell r="F10">
-            <v>3.99000123143</v>
-          </cell>
-          <cell r="G10">
-            <v>8.825000375510001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>10</v>
-          </cell>
-          <cell r="E11">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="F11">
-            <v>2.9900023713700001</v>
-          </cell>
-          <cell r="G11">
-            <v>8.0250002443799993</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>11</v>
-          </cell>
-          <cell r="E12">
-            <v>7.1249991655299993</v>
-          </cell>
-          <cell r="F12">
-            <v>2.5300011038799997</v>
-          </cell>
-          <cell r="G12">
-            <v>7.5249999761600002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>12</v>
-          </cell>
-          <cell r="E13">
-            <v>6.8999990820899999</v>
-          </cell>
-          <cell r="F13">
-            <v>2.2250007838000001</v>
-          </cell>
-          <cell r="G13">
-            <v>7.3250003159000006</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>13</v>
-          </cell>
-          <cell r="E14">
-            <v>6.3999995589300003</v>
-          </cell>
-          <cell r="F14">
-            <v>1.8299989402300001</v>
-          </cell>
-          <cell r="G14">
-            <v>6.9000005722000006</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>14</v>
-          </cell>
-          <cell r="E15">
-            <v>6.2499992549400005</v>
-          </cell>
-          <cell r="F15">
-            <v>1.52499871328</v>
-          </cell>
-          <cell r="G15">
-            <v>6.5749995410399995</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>15</v>
-          </cell>
-          <cell r="E16">
-            <v>6.1499994248199998</v>
-          </cell>
-          <cell r="F16">
-            <v>1.34499883279</v>
-          </cell>
-          <cell r="G16">
-            <v>6.3499994576000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>16</v>
-          </cell>
-          <cell r="E17">
-            <v>6.0749992728200004</v>
-          </cell>
-          <cell r="F17">
-            <v>1.2199989519999999</v>
-          </cell>
-          <cell r="G17">
-            <v>6.2499996274700003</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>17</v>
-          </cell>
-          <cell r="E18">
-            <v>5.8749988675099996</v>
-          </cell>
-          <cell r="F18">
-            <v>1.10999904573</v>
-          </cell>
-          <cell r="G18">
-            <v>6.1499994248199998</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>18</v>
-          </cell>
-          <cell r="E19">
-            <v>5.8499988168500003</v>
-          </cell>
-          <cell r="F19">
-            <v>0.96999919041999993</v>
-          </cell>
-          <cell r="G19">
-            <v>5.9499993920299996</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>19</v>
-          </cell>
-          <cell r="E20">
-            <v>5.8999985456499999</v>
-          </cell>
-          <cell r="F20">
-            <v>0.88499924167999999</v>
-          </cell>
-          <cell r="G20">
-            <v>5.9249993413699995</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>20</v>
-          </cell>
-          <cell r="E21">
-            <v>5.8499984443200006</v>
-          </cell>
-          <cell r="F21">
-            <v>0.77499933540800003</v>
-          </cell>
-          <cell r="G21">
-            <v>5.9249993413699995</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>21</v>
-          </cell>
-          <cell r="E22">
-            <v>5.7499986141899999</v>
-          </cell>
-          <cell r="F22">
-            <v>0.67999949678799998</v>
-          </cell>
-          <cell r="G22">
-            <v>5.9249997139000001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>22</v>
-          </cell>
-          <cell r="E23">
-            <v>5.6749988347300002</v>
-          </cell>
-          <cell r="F23">
-            <v>0.62999962829099998</v>
-          </cell>
-          <cell r="G23">
-            <v>5.9499997645600002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>23</v>
-          </cell>
-          <cell r="E24">
-            <v>5.6499991565899998</v>
-          </cell>
-          <cell r="F24">
-            <v>0.52999975159799995</v>
-          </cell>
-          <cell r="G24">
-            <v>5.9249993413699995</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>24</v>
-          </cell>
-          <cell r="E25">
-            <v>5.6499995291199996</v>
-          </cell>
-          <cell r="F25">
-            <v>0.44999974779799995</v>
-          </cell>
-          <cell r="G25">
-            <v>5.8499991893800001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>25</v>
-          </cell>
-          <cell r="E26">
-            <v>5.6249998509900001</v>
-          </cell>
-          <cell r="F26">
-            <v>0.37499975878700004</v>
-          </cell>
-          <cell r="G26">
-            <v>5.8499991893800001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>26</v>
-          </cell>
-          <cell r="E27">
-            <v>5.6249998509900001</v>
-          </cell>
-          <cell r="F27">
-            <v>0.31499983742799997</v>
-          </cell>
-          <cell r="G27">
-            <v>5.7999994605799996</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>27</v>
-          </cell>
-          <cell r="E28">
-            <v>5.6000001728499997</v>
-          </cell>
-          <cell r="F28">
-            <v>0.28999987989699999</v>
-          </cell>
-          <cell r="G28">
-            <v>5.7749990373799998</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>28</v>
-          </cell>
-          <cell r="E29">
-            <v>5.4999999702000002</v>
-          </cell>
-          <cell r="F29">
-            <v>0.24999994784599999</v>
-          </cell>
-          <cell r="G29">
-            <v>5.7999990880499999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>29</v>
-          </cell>
-          <cell r="E30">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="F30">
-            <v>0.22499999031400003</v>
-          </cell>
-          <cell r="G30">
-            <v>5.7249993085900002</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>30</v>
-          </cell>
-          <cell r="E31">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="F31">
-            <v>0.19500001799300001</v>
-          </cell>
-          <cell r="G31">
-            <v>5.7249993085900002</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>31</v>
-          </cell>
-          <cell r="E32">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="F32">
-            <v>0.180000020191</v>
-          </cell>
-          <cell r="G32">
-            <v>5.7499986141899999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>32</v>
-          </cell>
-          <cell r="E33">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="F33">
-            <v>0.16000000759999999</v>
-          </cell>
-          <cell r="G33">
-            <v>5.7249985635300007</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>33</v>
-          </cell>
-          <cell r="E34">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="F34">
-            <v>0.15500000445200002</v>
-          </cell>
-          <cell r="G34">
-            <v>5.6999985128600006</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>34</v>
-          </cell>
-          <cell r="E35">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F35">
-            <v>0.15000000130400001</v>
-          </cell>
-          <cell r="G35">
-            <v>5.6999985128600006</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>35</v>
-          </cell>
-          <cell r="E36">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="F36">
-            <v>0.129999988712</v>
-          </cell>
-          <cell r="G36">
-            <v>5.6749988347300002</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>36</v>
-          </cell>
-          <cell r="E37">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="F37">
-            <v>0.11999997077500001</v>
-          </cell>
-          <cell r="G37">
-            <v>5.6749988347300002</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>37</v>
-          </cell>
-          <cell r="E38">
-            <v>5.3249996155500003</v>
-          </cell>
-          <cell r="F38">
-            <v>0.11499996762699999</v>
-          </cell>
-          <cell r="G38">
-            <v>5.6999985128600006</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>38</v>
-          </cell>
-          <cell r="E39">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F39">
-            <v>0.10999997612099999</v>
-          </cell>
-          <cell r="G39">
-            <v>5.6749984622000005</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40">
-            <v>39</v>
-          </cell>
-          <cell r="E40">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F40">
-            <v>9.99999814667E-2</v>
-          </cell>
-          <cell r="G40">
-            <v>5.6749988347300002</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41">
-            <v>40</v>
-          </cell>
-          <cell r="E41">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F41">
-            <v>9.4999978318799999E-2</v>
-          </cell>
-          <cell r="G41">
-            <v>5.6749988347300002</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>41</v>
-          </cell>
-          <cell r="E42">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F42">
-            <v>8.9999980991699993E-2</v>
-          </cell>
-          <cell r="G42">
-            <v>5.6999985128600006</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>42</v>
-          </cell>
-          <cell r="E43">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F43">
-            <v>8.9999980991699993E-2</v>
-          </cell>
-          <cell r="G43">
-            <v>5.6749984622000005</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>43</v>
-          </cell>
-          <cell r="E44">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="F44">
-            <v>8.9999980991699993E-2</v>
-          </cell>
-          <cell r="G44">
-            <v>5.6749984622000005</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>44</v>
-          </cell>
-          <cell r="E45">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="F45">
-            <v>8.4999983664600001E-2</v>
-          </cell>
-          <cell r="G45">
-            <v>5.6499987840700001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>45</v>
-          </cell>
-          <cell r="E46">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="F46">
-            <v>7.9999986337499995E-2</v>
-          </cell>
-          <cell r="G46">
-            <v>5.6499987840700001</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>46</v>
-          </cell>
-          <cell r="E47">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F47">
-            <v>7.9999986337499995E-2</v>
-          </cell>
-          <cell r="G47">
-            <v>5.5999994278000003</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>47</v>
-          </cell>
-          <cell r="E48">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F48">
-            <v>6.9999991683299997E-2</v>
-          </cell>
-          <cell r="G48">
-            <v>5.6249994784600004</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>48</v>
-          </cell>
-          <cell r="E49">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="F49">
-            <v>6.4999994356199992E-2</v>
-          </cell>
-          <cell r="G49">
-            <v>5.6249994784600004</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>49</v>
-          </cell>
-          <cell r="E50">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="F50">
-            <v>6.4999994356199992E-2</v>
-          </cell>
-          <cell r="G50">
-            <v>5.6249994784600004</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>50</v>
-          </cell>
-          <cell r="E51">
-            <v>5.4250001907299996</v>
-          </cell>
-          <cell r="F51">
-            <v>6.4999994356199992E-2</v>
-          </cell>
-          <cell r="G51">
-            <v>5.5999994278000003</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52">
-            <v>51</v>
-          </cell>
-          <cell r="E52">
-            <v>5.4250001907299996</v>
-          </cell>
-          <cell r="F52">
-            <v>6.4999994356199992E-2</v>
-          </cell>
-          <cell r="G52">
-            <v>5.5999994278000003</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>52</v>
-          </cell>
-          <cell r="E53">
-            <v>5.4250001907299996</v>
-          </cell>
-          <cell r="F53">
-            <v>6.4999994356199992E-2</v>
-          </cell>
-          <cell r="G53">
-            <v>5.54999932647</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>53</v>
-          </cell>
-          <cell r="E54">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="F54">
-            <v>6.4999994356199992E-2</v>
-          </cell>
-          <cell r="G54">
-            <v>5.5749993771300002</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55">
-            <v>54</v>
-          </cell>
-          <cell r="E55">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="F55">
-            <v>6.4999994356199992E-2</v>
-          </cell>
-          <cell r="G55">
-            <v>5.5749993771300002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4525,13 +3769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4551,7 +3795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.15074999630499999</v>
       </c>
@@ -4577,7 +3821,7 @@
         <v>15.225000679500001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.13875000178800001</v>
       </c>
@@ -4603,7 +3847,7 @@
         <v>14.4499987364</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.12775000929800001</v>
       </c>
@@ -4629,7 +3873,7 @@
         <v>13.7749999762</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.11699999123800001</v>
       </c>
@@ -4655,7 +3899,7 @@
         <v>12.624998390700002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.112999990582</v>
       </c>
@@ -4681,7 +3925,7 @@
         <v>12.250001728499999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.110749989748</v>
       </c>
@@ -4707,7 +3951,7 @@
         <v>11.850000172900002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.111250005662</v>
       </c>
@@ -4733,7 +3977,7 @@
         <v>11.699999123800001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.10925000906</v>
       </c>
@@ -4759,7 +4003,7 @@
         <v>11.475000530499999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.10650000721199999</v>
       </c>
@@ -4785,7 +4029,7 @@
         <v>11.100000143100001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.104249998927</v>
       </c>
@@ -4811,7 +4055,7 @@
         <v>10.925000905999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.9749989807599998E-2</v>
       </c>
@@ -4837,7 +4081,7 @@
         <v>10.5249993503</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9.5250003039799996E-2</v>
       </c>
@@ -4863,7 +4107,7 @@
         <v>9.8499990999700007</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9.2249996960200004E-2</v>
       </c>
@@ -4889,7 +4133,7 @@
         <v>9.349999576810001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.8500000536400003E-2</v>
       </c>
@@ -4915,7 +4159,7 @@
         <v>8.9250005781699997</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.7249994277999995E-2</v>
       </c>
@@ -4941,7 +4185,7 @@
         <v>8.825000375510001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8.5749991238099996E-2</v>
       </c>
@@ -4967,7 +4211,7 @@
         <v>8.5500001907299996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.5249990224799996E-2</v>
       </c>
@@ -4993,7 +4237,7 @@
         <v>8.5500001907299996</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8.2999996840999998E-2</v>
       </c>
@@ -5019,7 +4263,7 @@
         <v>8.4249995648899993</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8.2250006496899994E-2</v>
       </c>
@@ -5045,7 +4289,7 @@
         <v>8.3499990403699993</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8.2500003278299996E-2</v>
       </c>
@@ -5071,7 +4315,7 @@
         <v>8.37499946356</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8.2000002264999997E-2</v>
       </c>
@@ -5097,7 +4341,7 @@
         <v>8.29999893904</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8.1999994814399998E-2</v>
       </c>
@@ -5123,7 +4367,7 @@
         <v>8.1749998033000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8.1749998032999996E-2</v>
       </c>
@@ -5149,7 +4393,7 @@
         <v>8.2249991595700003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8.0499984324000004E-2</v>
       </c>
@@ -5175,7 +4419,7 @@
         <v>8.0749996006499991</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7.9499989748000002E-2</v>
       </c>
@@ -5201,7 +4445,7 @@
         <v>7.7749989926800005</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7.7999994158700001E-2</v>
       </c>
@@ -5227,7 +4471,7 @@
         <v>7.5499989092399993</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7.5249999761600003E-2</v>
       </c>
@@ -5253,7 +4497,7 @@
         <v>7.3499992489800006</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.2999998927100004E-2</v>
       </c>
@@ -5279,7 +4523,7 @@
         <v>7.0499993860699997</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.9999992847399994E-2</v>
       </c>
@@ -5305,7 +4549,7 @@
         <v>6.8999998271499994</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.8499989807599998E-2</v>
       </c>
@@ -5331,7 +4575,7 @@
         <v>6.6249996423699997</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6.7999996244899996E-2</v>
       </c>
@@ -5357,7 +4601,7 @@
         <v>6.6499993205100001</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.59999921918E-2</v>
       </c>
@@ -5383,7 +4627,7 @@
         <v>6.3749998807899999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6.5249986946600003E-2</v>
       </c>
@@ -5409,7 +4653,7 @@
         <v>6.1249997466800004</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.3749991357300001E-2</v>
       </c>
@@ -5435,7 +4679,7 @@
         <v>5.7999994605799996</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.3749991357300001E-2</v>
       </c>
@@ -5461,7 +4705,7 @@
         <v>5.6999992579200001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.3249997794599999E-2</v>
       </c>
@@ -5487,7 +4731,7 @@
         <v>5.5999990552700005</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6.2249988317499998E-2</v>
       </c>
@@ -5513,7 +4757,7 @@
         <v>5.5499989539400003</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6.1749991029499997E-2</v>
       </c>
@@ -5539,7 +4783,7 @@
         <v>5.4749991744799997</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6.0499984771E-2</v>
       </c>
@@ -5565,7 +4809,7 @@
         <v>5.39999939501</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.8999989181800001E-2</v>
       </c>
@@ -5591,7 +4835,7 @@
         <v>5.2249994128899999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.8499988168500001E-2</v>
       </c>
@@ -5617,7 +4861,7 @@
         <v>5.1499996334299993</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.7749990373799999E-2</v>
       </c>
@@ -5643,7 +4887,7 @@
         <v>5.1249995827700001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.6999988853900001E-2</v>
       </c>
@@ -5669,7 +4913,7 @@
         <v>5.1499996334299993</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.7249989360600002E-2</v>
       </c>
@@ -5695,7 +4939,7 @@
         <v>5.1749993115699997</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.7249989360600002E-2</v>
       </c>
@@ -5721,7 +4965,7 @@
         <v>5.1249995827700001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.6999988853900001E-2</v>
       </c>
@@ -5747,7 +4991,7 @@
         <v>5.0999999046300006</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.6499987840699997E-2</v>
       </c>
@@ -5773,7 +5017,7 @@
         <v>4.9749996513100001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.5999990552700003E-2</v>
       </c>
@@ -5799,7 +5043,7 @@
         <v>4.9749996513100001</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.5749993771300001E-2</v>
       </c>
@@ -5825,7 +5069,7 @@
         <v>4.9749996513100001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.5249992758000001E-2</v>
       </c>
@@ -5851,7 +5095,7 @@
         <v>4.9749996513100001</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.5499989539400003E-2</v>
       </c>
@@ -5877,7 +5121,7 @@
         <v>4.9999997019800002</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.4999992251400003E-2</v>
       </c>
@@ -5903,7 +5147,7 @@
         <v>4.9749992787799995</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.4999992251400003E-2</v>
       </c>
@@ -5929,7 +5173,7 @@
         <v>4.9499992281200003</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.4999992251400003E-2</v>
       </c>
@@ -5955,7 +5199,7 @@
         <v>4.9249991774600002</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5.5499989539400003E-2</v>
       </c>
@@ -5981,7 +5225,7 @@
         <v>4.9249991774600002</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5.5499989539400003E-2</v>
       </c>
@@ -6007,7 +5251,7 @@
         <v>4.89999912679</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.5499989539400003E-2</v>
       </c>
@@ -6033,7 +5277,7 @@
         <v>4.8499990254599998</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.5749993771300001E-2</v>
       </c>
@@ -6059,7 +5303,7 @@
         <v>4.8499990254599998</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.5749993771300001E-2</v>
       </c>
@@ -6085,7 +5329,7 @@
         <v>4.8249989748000006</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.4999995976700002E-2</v>
       </c>
@@ -6111,7 +5355,7 @@
         <v>4.8249989748000006</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.4999995976700002E-2</v>
       </c>
@@ -6137,7 +5381,7 @@
         <v>4.8249989748000006</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5.4999995976700002E-2</v>
       </c>
@@ -6163,7 +5407,7 @@
         <v>4.8249989748000006</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5.4999995976700002E-2</v>
       </c>
@@ -6189,7 +5433,7 @@
         <v>4.8249989748000006</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5.4749991744799997E-2</v>
       </c>
@@ -6215,7 +5459,7 @@
         <v>4.7749988734700004</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.3749989718199997E-2</v>
       </c>
@@ -6241,7 +5485,7 @@
         <v>4.7249987721400002</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -6267,7 +5511,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5.3499992936800002E-2</v>
       </c>
@@ -6293,7 +5537,7 @@
         <v>4.67499867082</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5.3499992936800002E-2</v>
       </c>
@@ -6319,7 +5563,7 @@
         <v>4.67499867082</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5.3499992936800002E-2</v>
       </c>
@@ -6345,7 +5589,7 @@
         <v>4.67499867082</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -6371,7 +5615,7 @@
         <v>4.67499867082</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -6397,7 +5641,7 @@
         <v>4.67499867082</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -6423,7 +5667,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -6449,7 +5693,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5.35000003874E-2</v>
       </c>
@@ -6475,7 +5719,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5.35000003874E-2</v>
       </c>
@@ -6501,7 +5745,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -6527,7 +5771,7 @@
         <v>4.67499867082</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -6553,7 +5797,7 @@
         <v>4.6499986201499999</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.35000003874E-2</v>
       </c>
@@ -6579,7 +5823,7 @@
         <v>4.6499986201499999</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5.35000003874E-2</v>
       </c>
@@ -6605,7 +5849,7 @@
         <v>4.6499989926800005</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5.3249996155500003E-2</v>
       </c>
@@ -6631,7 +5875,7 @@
         <v>4.6999990940100007</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5.3249996155500003E-2</v>
       </c>
@@ -6657,7 +5901,7 @@
         <v>4.6999990940100007</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5.3249996155500003E-2</v>
       </c>
@@ -6683,7 +5927,7 @@
         <v>4.6999990940100007</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5.3249996155500003E-2</v>
       </c>
@@ -6709,7 +5953,7 @@
         <v>4.6999990940100007</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5.2999999374200003E-2</v>
       </c>
@@ -6735,7 +5979,7 @@
         <v>4.6749990433499997</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -6761,7 +6005,7 @@
         <v>4.6499989926800005</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -6787,7 +6031,7 @@
         <v>4.6499989926800005</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -6813,7 +6057,7 @@
         <v>4.6749990433499997</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -6839,7 +6083,7 @@
         <v>4.6749990433499997</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -6865,7 +6109,7 @@
         <v>4.6749990433499997</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -6891,7 +6135,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -6917,7 +6161,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -6943,7 +6187,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -6969,7 +6213,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -6995,7 +6239,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -7021,7 +6265,7 @@
         <v>4.6999987214800001</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -7047,7 +6291,7 @@
         <v>4.6749990433499997</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -7073,7 +6317,7 @@
         <v>4.6749990433499997</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -7099,7 +6343,7 @@
         <v>4.6749990433499997</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -7125,7 +6369,7 @@
         <v>4.6749990433499997</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -7151,7 +6395,7 @@
         <v>4.6499989926800005</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -7177,7 +6421,7 @@
         <v>4.6249989420199995</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -7188,7 +6432,7 @@
         <v>4.6249989420199998E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5.2250001579500001E-2</v>
       </c>
@@ -7199,7 +6443,7 @@
         <v>4.6249989420199998E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5.2250001579500001E-2</v>
       </c>
@@ -7210,7 +6454,7 @@
         <v>4.6249989420199998E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5.2250001579500001E-2</v>
       </c>
@@ -7221,7 +6465,7 @@
         <v>4.6249989420199998E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -7232,7 +6476,7 @@
         <v>4.6249989420199998E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -7243,7 +6487,7 @@
         <v>4.6249989420199998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -7254,7 +6498,7 @@
         <v>4.6249989420199998E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -7265,7 +6509,7 @@
         <v>4.6249989420199998E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -7276,7 +6520,7 @@
         <v>4.6499989926800003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -7287,7 +6531,7 @@
         <v>4.6499989926800003E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5.2500005811500002E-2</v>
       </c>
@@ -7298,7 +6542,7 @@
         <v>4.6499989926800003E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5.2500005811500002E-2</v>
       </c>
@@ -7309,7 +6553,7 @@
         <v>4.6499989926800003E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5.22500053048E-2</v>
       </c>
@@ -7320,7 +6564,7 @@
         <v>4.6499989926800003E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5.22500053048E-2</v>
       </c>
